--- a/dist/document/dest/2020/10/doctors/ttt.xlsx
+++ b/dist/document/dest/2020/10/doctors/ttt.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="1">
-        <v>495000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>60</v>
       </c>
-      <c r="C3" s="1">
-        <v>179400</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
-        <v>154800</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
-        <v>435600</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
-        <v>214500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -471,7 +453,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1">
-        <v>1631100</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
